--- a/Datos/Anuario2024/060601_TurismoCongresos.xlsx
+++ b/Datos/Anuario2024/060601_TurismoCongresos.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="82" r:id="rId1"/>
+    <sheet name="1" sheetId="78" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="111" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
     <definedName name="_R4_12">#REF!</definedName>
@@ -27,6 +40,8 @@
     <definedName name="_R4_19">#REF!</definedName>
     <definedName name="_R4_20">#REF!</definedName>
     <definedName name="_R4_21">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
@@ -34,90 +49,119 @@
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
-    <definedName name="suma">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$24</definedName>
+    <definedName name="suma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Asistentes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Congresos</t>
+  </si>
+  <si>
+    <t>Eventos corporativos</t>
+  </si>
+  <si>
+    <t>TURISMO DE CONGRESOS</t>
+  </si>
+  <si>
+    <t>Fuente: Fundación Visit València</t>
+  </si>
+  <si>
+    <t>Reuniones</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
+  </si>
+  <si>
+    <t>Internacionales</t>
+  </si>
+  <si>
+    <t>1. Número de reuniones y asistentes según tipología. 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,67 +190,68 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -275,8 +320,84 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF663300"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FFFFDCB9"/>
+      <color rgb="FF660000"/>
+      <color rgb="FFFFE397"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5038725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="390525"/>
+          <a:ext cx="5029200" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,271 +686,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja77">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>TURISMO DE CONGRESOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja76">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="21.42578125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" style="2" min="2" max="4"/>
-    <col width="11.42578125" customWidth="1" style="1" min="5" max="16384"/>
+    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>1. Número de reuniones y asistentes según tipología. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="19" t="inlineStr">
-        <is>
-          <t>Eventos corporativos</t>
-        </is>
-      </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>Congresos</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Reuniones</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
         <v>2238</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>1746</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>492</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="20" t="inlineStr">
-        <is>
-          <t>Asistentes</t>
-        </is>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="9">
         <f>C5+D5</f>
-        <v/>
-      </c>
-      <c r="C5" s="9" t="n">
+        <v>672434</v>
+      </c>
+      <c r="C5" s="9">
         <v>591742</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>80692</v>
       </c>
-      <c r="F5" s="18" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>Nacionales</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
         <v>443806</v>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Internacionales</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="n">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
         <v>228628</v>
       </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>Fuente: Fundación Visit València</t>
-        </is>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja96">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:H11"/>
+  <dimension ref="C1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="17" min="4" max="6"/>
-    <col width="11.42578125" customWidth="1" style="5" min="7" max="8"/>
-    <col width="11.42578125" customWidth="1" style="17" min="9" max="13"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="13" width="11.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="C1" s="17" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="H1" s="17" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="D2" s="13" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="D4" s="17" t="n"/>
-      <c r="E4" s="17" t="n"/>
-      <c r="F4" s="17" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="D9" s="17" t="n"/>
-      <c r="E9" s="17" t="n"/>
-      <c r="F9" s="17" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="D10" s="17" t="n"/>
-      <c r="E10" s="17" t="n"/>
-      <c r="F10" s="17" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="D11" s="6" t="n"/>
+    <row r="1" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>